--- a/608_MLPL INdorePfizer Trade scheme for Gelusil 200ML CN to be done_608 credit note PDF.xlsx
+++ b/608_MLPL INdorePfizer Trade scheme for Gelusil 200ML CN to be done_608 credit note PDF.xlsx
@@ -419,2673 +419,2830 @@
         <v>GrandTotal</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>SINGHAL MEDICALS[MP0089]</v>
       </c>
       <c r="B2" t="str">
         <v>608/23/T1-1566</v>
       </c>
-      <c r="C2" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D2" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E2" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>SINGHAL MEDICALS[MP0089]</v>
       </c>
       <c r="B3" t="str">
         <v>608/23/T1-1567</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D3" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E3" t="str">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>HASHMI MEDICAL AGENCIES[MP0003]</v>
       </c>
       <c r="B4" t="str">
         <v>608/23/T1-1568</v>
       </c>
-      <c r="C4" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D4" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E4" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>HASHMI MEDICAL AGENCIES[MP0003]</v>
       </c>
       <c r="B5" t="str">
         <v>608/23/T1-1569</v>
       </c>
-      <c r="C5" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D5" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E5" t="str">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>HASHMI MEDICAL AGENCIES[MP0003]</v>
       </c>
       <c r="B6" t="str">
         <v>608/23/T1-1570</v>
       </c>
-      <c r="C6" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D6" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E6" t="str">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>HASHMI MEDICAL AGENCIES[MP0003]</v>
       </c>
       <c r="B7" t="str">
         <v>608/23/T1-1571</v>
       </c>
-      <c r="C7" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D7" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E7" t="str">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>G. L. PHARMA[MP0005]</v>
       </c>
       <c r="B8" t="str">
         <v>608/23/T1-1572</v>
       </c>
-      <c r="C8" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D8" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E8" t="str">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>G. L. PHARMA[MP0005]</v>
       </c>
       <c r="B9" t="str">
         <v>608/23/T1-1573</v>
       </c>
-      <c r="C9" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D9" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E9" t="str">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>GANESH MEDICAL &amp; GENERAL AGENCY[MP0006]</v>
       </c>
       <c r="B10" t="str">
         <v>608/23/T1-1574</v>
       </c>
-      <c r="C10" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D10" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E10" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>GANESH MEDICAL &amp; GENERAL AGENCY[MP0006]</v>
       </c>
       <c r="B11" t="str">
         <v>608/23/T1-1575</v>
       </c>
-      <c r="C11" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D11" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E11" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
         <v>GANESH MEDICOSE[MP0009]</v>
       </c>
       <c r="B12" t="str">
         <v>608/23/T1-1576</v>
       </c>
-      <c r="C12" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D12" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E12" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
         <v>CHHAJED AGENCIES[MP0012]</v>
       </c>
       <c r="B13" t="str">
         <v>608/23/T1-1577</v>
       </c>
-      <c r="C13" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D13" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E13" t="str">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
         <v>CITIZEN CHEMIST[MP0013]</v>
       </c>
       <c r="B14" t="str">
         <v>608/23/T1-1578</v>
       </c>
-      <c r="C14" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D14" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E14" t="str">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
       <c r="A15" t="str">
         <v>CITIZEN CHEMIST[MP0013]</v>
       </c>
       <c r="B15" t="str">
         <v>608/23/T1-1579</v>
       </c>
-      <c r="C15" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D15" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E15" t="str">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
       <c r="A16" t="str">
         <v>CITIZEN CHEMIST[MP0013]</v>
       </c>
       <c r="B16" t="str">
         <v>608/23/T1-1580</v>
       </c>
-      <c r="C16" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D16" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E16" t="str">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
       <c r="A17" t="str">
         <v>CITIZEN CHEMIST[MP0013]</v>
       </c>
       <c r="B17" t="str">
         <v>608/23/T1-1581</v>
       </c>
-      <c r="C17" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D17" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E17" t="str">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
       <c r="A18" t="str">
         <v>CITIZEN CHEMIST[MP0013]</v>
       </c>
       <c r="B18" t="str">
         <v>608/23/T1-1582</v>
       </c>
-      <c r="C18" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D18" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E18" t="str">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
       <c r="A19" t="str">
         <v>MEDICURE LABORATORIES[MP0018]</v>
       </c>
       <c r="B19" t="str">
         <v>608/23/T1-1583</v>
       </c>
-      <c r="C19" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D19" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E19" t="str">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
         <v>R.MEDICO[MP0022]</v>
       </c>
       <c r="B20" t="str">
         <v>608/23/T1-1584</v>
       </c>
-      <c r="C20" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D20" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E20" t="str">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>BACHHAN MEDICAL AGENCIES[MP0028]</v>
       </c>
       <c r="B21" t="str">
         <v>608/23/T1-1585</v>
       </c>
-      <c r="C21" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D21" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E21" t="str">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
       <c r="A22" t="str">
         <v>BACHHAN MEDICAL AGENCIES[MP0028]</v>
       </c>
       <c r="B22" t="str">
         <v>608/23/T1-1586</v>
       </c>
-      <c r="C22" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D22" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E22" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
       <c r="A23" t="str">
         <v>BANSAL MEDICAL AGENCIES[MP0029]</v>
       </c>
       <c r="B23" t="str">
         <v>608/23/T1-1587</v>
       </c>
-      <c r="C23" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D23" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E23" t="str">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
       <c r="A24" t="str">
         <v>GAGAN MEDICAL AGENCIES[MP0032]</v>
       </c>
       <c r="B24" t="str">
         <v>608/23/T1-1588</v>
       </c>
-      <c r="C24" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D24" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E24" t="str">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
       <c r="A25" t="str">
         <v>JAIN CHEMIST[MP0033]</v>
       </c>
       <c r="B25" t="str">
         <v>608/23/T1-1589</v>
       </c>
-      <c r="C25" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D25" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E25" t="str">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
       <c r="A26" t="str">
         <v>JAIN CHEMIST[MP0033]</v>
       </c>
       <c r="B26" t="str">
         <v>608/23/T1-1590</v>
       </c>
-      <c r="C26" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D26" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E26" t="str">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
       <c r="A27" t="str">
         <v>JAIN CHEMIST[MP0033]</v>
       </c>
       <c r="B27" t="str">
         <v>608/23/T1-1591</v>
       </c>
-      <c r="C27" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D27" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E27" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
       <c r="A28" t="str">
         <v>RAJESH MEDICAL AGENCIES[MP0039]</v>
       </c>
       <c r="B28" t="str">
         <v>608/23/T1-1592</v>
       </c>
-      <c r="C28" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D28" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E28" t="str">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
       <c r="A29" t="str">
         <v>RAJESH MEDICAL AGENCIES[MP0039]</v>
       </c>
       <c r="B29" t="str">
         <v>608/23/T1-1593</v>
       </c>
-      <c r="C29" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D29" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E29" t="str">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
       <c r="A30" t="str">
         <v>USHA PHARMA[MP0043]</v>
       </c>
       <c r="B30" t="str">
         <v>608/23/T1-1594</v>
       </c>
-      <c r="C30" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D30" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E30" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
       <c r="A31" t="str">
         <v>VIJAY MEDICALS[MP0046]</v>
       </c>
       <c r="B31" t="str">
         <v>608/23/T1-1595</v>
       </c>
-      <c r="C31" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D31" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E31" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
       <c r="A32" t="str">
         <v>TRIMURTI PHARMACEUTICALS[MP0048]</v>
       </c>
       <c r="B32" t="str">
         <v>608/23/T1-1596</v>
       </c>
-      <c r="C32" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D32" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E32" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
       <c r="A33" t="str">
         <v>TRIMURTI PHARMACEUTICALS[MP0048]</v>
       </c>
       <c r="B33" t="str">
         <v>608/23/T1-1597</v>
       </c>
-      <c r="C33" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D33" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E33" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
       <c r="A34" t="str">
         <v>NARMADA MEDICAL AGENCIES[MP0052]</v>
       </c>
       <c r="B34" t="str">
         <v>608/23/T1-1598</v>
       </c>
-      <c r="C34" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D34" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E34" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
       <c r="A35" t="str">
         <v>NARMADA MEDICAL AGENCIES[MP0052]</v>
       </c>
       <c r="B35" t="str">
         <v>608/23/T1-1599</v>
       </c>
-      <c r="C35" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D35" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E35" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
       <c r="A36" t="str">
         <v>VIJAY MEDICAL AGENCIES[MP0063]</v>
       </c>
       <c r="B36" t="str">
         <v>608/23/T1-1600</v>
       </c>
-      <c r="C36" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D36" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E36" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
       <c r="A37" t="str">
         <v>PRIYANKA SALES AGENCIES[MP0064]</v>
       </c>
       <c r="B37" t="str">
         <v>608/23/T1-1601</v>
       </c>
-      <c r="C37" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D37" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E37" t="str">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
       <c r="A38" t="str">
         <v>KANTILAL &amp; BROTHERS[MP0065]</v>
       </c>
       <c r="B38" t="str">
         <v>608/23/T1-1602</v>
       </c>
-      <c r="C38" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D38" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E38" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
       <c r="A39" t="str">
         <v>KANTILAL &amp; BROTHERS[MP0065]</v>
       </c>
       <c r="B39" t="str">
         <v>608/23/T1-1603</v>
       </c>
-      <c r="C39" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D39" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E39" t="str">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
       <c r="A40" t="str">
         <v>RACHNA MEDICAL AGENCIES[MP0067]</v>
       </c>
       <c r="B40" t="str">
         <v>608/23/T1-1604</v>
       </c>
-      <c r="C40" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D40" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E40" t="str">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
       <c r="A41" t="str">
         <v>AMRIT PHARMA[MP0071]</v>
       </c>
       <c r="B41" t="str">
         <v>608/23/T1-1605</v>
       </c>
-      <c r="C41" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D41" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E41" t="str">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
       <c r="A42" t="str">
         <v>AMRIT PHARMA[MP0071]</v>
       </c>
       <c r="B42" t="str">
         <v>608/23/T1-1606</v>
       </c>
-      <c r="C42" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D42" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E42" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
       <c r="A43" t="str">
         <v>AMRIT PHARMA[MP0071]</v>
       </c>
       <c r="B43" t="str">
         <v>608/23/T1-1607</v>
       </c>
-      <c r="C43" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D43" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E43" t="str">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
       <c r="A44" t="str">
         <v>AMRIT PHARMA[MP0071]</v>
       </c>
       <c r="B44" t="str">
         <v>608/23/T1-1608</v>
       </c>
-      <c r="C44" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D44" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E44" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
       <c r="A45" t="str">
         <v>RAMA PHARMA AGENCIES[MP0072]</v>
       </c>
       <c r="B45" t="str">
         <v>608/23/T1-1609</v>
       </c>
-      <c r="C45" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D45" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E45" t="str">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
       <c r="A46" t="str">
         <v>VIJAY PHARMA[MP0074]</v>
       </c>
       <c r="B46" t="str">
         <v>608/23/T1-1610</v>
       </c>
-      <c r="C46" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D46" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E46" t="str">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
       <c r="A47" t="str">
         <v>VIJAY PHARMA[MP0074]</v>
       </c>
       <c r="B47" t="str">
         <v>608/23/T1-1611</v>
       </c>
-      <c r="C47" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D47" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E47" t="str">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
       <c r="A48" t="str">
         <v>SWATI MEDICOSE[MP0078]</v>
       </c>
       <c r="B48" t="str">
         <v>608/23/T1-1612</v>
       </c>
-      <c r="C48" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D48" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E48" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
       <c r="A49" t="str">
         <v>ANUPAM MEDICO[MP0083]</v>
       </c>
       <c r="B49" t="str">
         <v>608/23/T1-1613</v>
       </c>
-      <c r="C49" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D49" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E49" t="str">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
       <c r="A50" t="str">
         <v>SINGHAI MEDICOSE[MP0084]</v>
       </c>
       <c r="B50" t="str">
         <v>608/23/T1-1614</v>
       </c>
-      <c r="C50" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D50" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E50" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
       <c r="A51" t="str">
         <v>ARUN PHARMATICS[MP0088]</v>
       </c>
       <c r="B51" t="str">
         <v>608/23/T1-1615</v>
       </c>
-      <c r="C51" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D51" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E51" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
       <c r="A52" t="str">
         <v>ARUN PHARMATICS[MP0088]</v>
       </c>
       <c r="B52" t="str">
         <v>608/23/T1-1616</v>
       </c>
-      <c r="C52" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D52" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E52" t="str">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
       <c r="A53" t="str">
         <v>VIJAY MEDICAL STORES[MP0091]</v>
       </c>
       <c r="B53" t="str">
         <v>608/23/T1-1617</v>
       </c>
-      <c r="C53" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D53" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E53" t="str">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
       <c r="A54" t="str">
         <v>SYNCHEM DISTRIBUTORS PVT LTD[MP0092]</v>
       </c>
       <c r="B54" t="str">
         <v>608/23/T1-1618</v>
       </c>
-      <c r="C54" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D54" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E54" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
       <c r="A55" t="str">
         <v>SYNCHEM DISTRIBUTORS PVT LTD[MP0092]</v>
       </c>
       <c r="B55" t="str">
         <v>608/23/T1-1619</v>
       </c>
-      <c r="C55" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D55" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E55" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
       <c r="A56" t="str">
         <v>SINDH MEDICAL STORES[MP0095]</v>
       </c>
       <c r="B56" t="str">
         <v>608/23/T1-1620</v>
       </c>
-      <c r="C56" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D56" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E56" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
       <c r="A57" t="str">
         <v>SINDH MEDICAL STORES[MP0095]</v>
       </c>
       <c r="B57" t="str">
         <v>608/23/T1-1621</v>
       </c>
-      <c r="C57" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D57" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E57" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
       <c r="A58" t="str">
         <v>SINDH MEDICAL STORES[MP0095]</v>
       </c>
       <c r="B58" t="str">
         <v>608/23/T1-1622</v>
       </c>
-      <c r="C58" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D58" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E58" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
       <c r="A59" t="str">
         <v>KARAN MEDICAL AGENCIES[MP0096]</v>
       </c>
       <c r="B59" t="str">
         <v>608/23/T1-1623</v>
       </c>
-      <c r="C59" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D59" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E59" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
       <c r="A60" t="str">
         <v>KARAN MEDICAL AGENCIES[MP0096]</v>
       </c>
       <c r="B60" t="str">
         <v>608/23/T1-1624</v>
       </c>
-      <c r="C60" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D60" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E60" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
       <c r="A61" t="str">
         <v>ONKARLAL JAGANNATH CHEMIST[MP0100]</v>
       </c>
       <c r="B61" t="str">
         <v>608/23/T1-1625</v>
       </c>
-      <c r="C61" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D61" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E61" t="str">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
       <c r="A62" t="str">
         <v>BHADADA MEDICAL AGENCIES[MP0101]</v>
       </c>
       <c r="B62" t="str">
         <v>608/23/T1-1626</v>
       </c>
-      <c r="C62" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D62" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E62" t="str">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
       <c r="A63" t="str">
         <v>AHUJA MEDICAL AGENCIES[MP0103]</v>
       </c>
       <c r="B63" t="str">
         <v>608/23/T1-1627</v>
       </c>
-      <c r="C63" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D63" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E63" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
       <c r="A64" t="str">
         <v>JYOTI MEDICAL STORES[MP0109]</v>
       </c>
       <c r="B64" t="str">
         <v>608/23/T1-1628</v>
       </c>
-      <c r="C64" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C64" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D64" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E64" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
       <c r="A65" t="str">
         <v>RAMA MEDICAL STORE[MP0113]</v>
       </c>
       <c r="B65" t="str">
         <v>608/23/T1-1629</v>
       </c>
-      <c r="C65" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D65" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E65" t="str">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
       <c r="A66" t="str">
         <v>RAMA MEDICAL STORE[MP0113]</v>
       </c>
       <c r="B66" t="str">
         <v>608/23/T1-1630</v>
       </c>
-      <c r="C66" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C66" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D66" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E66" t="str">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
       <c r="A67" t="str">
         <v>VISHNU MEDICAL STORES[MP0116]</v>
       </c>
       <c r="B67" t="str">
         <v>608/23/T1-1631</v>
       </c>
-      <c r="C67" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D67" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E67" t="str">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
       <c r="A68" t="str">
         <v>VISHNU MEDICAL STORES[MP0116]</v>
       </c>
       <c r="B68" t="str">
         <v>608/23/T1-1632</v>
       </c>
-      <c r="C68" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D68" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E68" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
       <c r="A69" t="str">
         <v>VISHNU MEDICAL STORES[MP0116]</v>
       </c>
       <c r="B69" t="str">
         <v>608/23/T1-1633</v>
       </c>
-      <c r="C69" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D69" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E69" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
       <c r="A70" t="str">
         <v>VISHNU MEDICAL STORES[MP0116]</v>
       </c>
       <c r="B70" t="str">
         <v>608/23/T1-1634</v>
       </c>
-      <c r="C70" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D70" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E70" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
       <c r="A71" t="str">
         <v>AGARWAL MEDICAL STORES[MP0117]</v>
       </c>
       <c r="B71" t="str">
         <v>608/23/T1-1635</v>
       </c>
-      <c r="C71" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C71" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D71" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E71" t="str">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
       <c r="A72" t="str">
         <v>AGARWAL MEDICAL STORES[MP0117]</v>
       </c>
       <c r="B72" t="str">
         <v>608/23/T1-1636</v>
       </c>
-      <c r="C72" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D72" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E72" t="str">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
       <c r="A73" t="str">
         <v>YOGESH AGENCIES[MP0120]</v>
       </c>
       <c r="B73" t="str">
         <v>608/23/T1-1637</v>
       </c>
-      <c r="C73" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C73" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D73" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E73" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
       <c r="A74" t="str">
         <v>YOGESH AGENCIES[MP0120]</v>
       </c>
       <c r="B74" t="str">
         <v>608/23/T1-1638</v>
       </c>
-      <c r="C74" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D74" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E74" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
       <c r="A75" t="str">
         <v>DEEPAK MEDICAL STORES[MP0122]</v>
       </c>
       <c r="B75" t="str">
         <v>608/23/T1-1639</v>
       </c>
-      <c r="C75" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C75" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D75" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E75" t="str">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
       <c r="A76" t="str">
         <v>DEEPAK MEDICAL STORES[MP0122]</v>
       </c>
       <c r="B76" t="str">
         <v>608/23/T1-1640</v>
       </c>
-      <c r="C76" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C76" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D76" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E76" t="str">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
       <c r="A77" t="str">
         <v>DEEPAK MEDICAL STORES[MP0122]</v>
       </c>
       <c r="B77" t="str">
         <v>608/23/T1-1641</v>
       </c>
-      <c r="C77" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C77" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D77" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E77" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
       <c r="A78" t="str">
         <v>SURESH MEDICAL STORES[MP0123]</v>
       </c>
       <c r="B78" t="str">
         <v>608/23/T1-1642</v>
       </c>
-      <c r="C78" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C78" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D78" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E78" t="str">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
       <c r="A79" t="str">
         <v>SOBEG SINGH SAHANI &amp; SONS[MP0129]</v>
       </c>
       <c r="B79" t="str">
         <v>608/23/T1-1643</v>
       </c>
-      <c r="C79" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D79" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E79" t="str">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
       <c r="A80" t="str">
         <v>SOBEG SINGH SAHANI &amp; SONS[MP0129]</v>
       </c>
       <c r="B80" t="str">
         <v>608/23/T1-1644</v>
       </c>
-      <c r="C80" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C80" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D80" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E80" t="str">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
       <c r="A81" t="str">
         <v>SOBEG SINGH SAHANI &amp; SONS[MP0129]</v>
       </c>
       <c r="B81" t="str">
         <v>608/23/T1-1645</v>
       </c>
-      <c r="C81" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C81" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D81" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E81" t="str">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
       <c r="A82" t="str">
         <v>SOBEG SINGH SAHANI &amp; SONS[MP0129]</v>
       </c>
       <c r="B82" t="str">
         <v>608/23/T1-1646</v>
       </c>
-      <c r="C82" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C82" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D82" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E82" t="str">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
       <c r="A83" t="str">
         <v>SOBEG SINGH SAHANI &amp; SONS[MP0129]</v>
       </c>
       <c r="B83" t="str">
         <v>608/23/T1-1647</v>
       </c>
-      <c r="C83" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C83" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D83" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E83" t="str">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>120800</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
       <c r="A84" t="str">
         <v>GYAN PHARMA &amp; GENERAL AGENCIES[MP0132]</v>
       </c>
       <c r="B84" t="str">
         <v>608/23/T1-1648</v>
       </c>
-      <c r="C84" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C84" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D84" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E84" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
       <c r="A85" t="str">
         <v>GYAN PHARMA &amp; GENERAL AGENCIES[MP0132]</v>
       </c>
       <c r="B85" t="str">
         <v>608/23/T1-1649</v>
       </c>
-      <c r="C85" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C85" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D85" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E85" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
       <c r="A86" t="str">
         <v>VISHAL MEDICAL AGENCIES[MP0135]</v>
       </c>
       <c r="B86" t="str">
         <v>608/23/T1-1650</v>
       </c>
-      <c r="C86" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C86" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D86" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E86" t="str">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
       <c r="A87" t="str">
         <v>VISHAL MEDICAL AGENCIES[MP0135]</v>
       </c>
       <c r="B87" t="str">
         <v>608/23/T1-1651</v>
       </c>
-      <c r="C87" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C87" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D87" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E87" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
       <c r="A88" t="str">
         <v>PHARMA SALES[MP0139]</v>
       </c>
       <c r="B88" t="str">
         <v>608/23/T1-1652</v>
       </c>
-      <c r="C88" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C88" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D88" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E88" t="str">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
       <c r="A89" t="str">
         <v>MAHESH MEDICAL AND GENERAL AGE[MP0148]</v>
       </c>
       <c r="B89" t="str">
         <v>608/23/T1-1653</v>
       </c>
-      <c r="C89" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C89" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D89" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E89" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
       <c r="A90" t="str">
         <v>MODERN MEDICAL STORES[MP0152]</v>
       </c>
       <c r="B90" t="str">
         <v>608/23/T1-1654</v>
       </c>
-      <c r="C90" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C90" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D90" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E90" t="str">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
       <c r="A91" t="str">
         <v>MODERN MEDICAL STORES[MP0152]</v>
       </c>
       <c r="B91" t="str">
         <v>608/23/T1-1655</v>
       </c>
-      <c r="C91" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C91" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D91" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E91" t="str">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
       <c r="A92" t="str">
         <v>R.K.TRADERS[MP0156]</v>
       </c>
       <c r="B92" t="str">
         <v>608/23/T1-1656</v>
       </c>
-      <c r="C92" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C92" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D92" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E92" t="str">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
       <c r="A93" t="str">
         <v>RAMA MEDICAL AGENCIES[MP0158]</v>
       </c>
       <c r="B93" t="str">
         <v>608/23/T1-1657</v>
       </c>
-      <c r="C93" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C93" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D93" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E93" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
       <c r="A94" t="str">
         <v>SETHI PHARMA DISTRIBUTORS PVT LTD[MP0165]</v>
       </c>
       <c r="B94" t="str">
         <v>608/23/T1-1658</v>
       </c>
-      <c r="C94" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C94" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D94" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E94" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
       <c r="A95" t="str">
         <v>SETHI PHARMA DISTRIBUTORS PVT LTD[MP0165]</v>
       </c>
       <c r="B95" t="str">
         <v>608/23/T1-1659</v>
       </c>
-      <c r="C95" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C95" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D95" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E95" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
       <c r="A96" t="str">
         <v>SETHI PHARMA DISTRIBUTORS PVT LTD[MP0165]</v>
       </c>
       <c r="B96" t="str">
         <v>608/23/T1-1660</v>
       </c>
-      <c r="C96" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C96" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D96" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E96" t="str">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
       <c r="A97" t="str">
         <v>SETHI PHARMA DISTRIBUTORS PVT LTD[MP0165]</v>
       </c>
       <c r="B97" t="str">
         <v>608/23/T1-1661</v>
       </c>
-      <c r="C97" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C97" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D97" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E97" t="str">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
       <c r="A98" t="str">
         <v>BAJRANG MEDICAL AGENCY[MP0166]</v>
       </c>
       <c r="B98" t="str">
         <v>608/23/T1-1662</v>
       </c>
-      <c r="C98" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C98" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D98" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E98" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
       <c r="A99" t="str">
         <v>BAJRANG MEDICAL AGENCY[MP0166]</v>
       </c>
       <c r="B99" t="str">
         <v>608/23/T1-1663</v>
       </c>
-      <c r="C99" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C99" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D99" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E99" t="str">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
       <c r="A100" t="str">
         <v>OM MEDICAL STORES[MP0167]</v>
       </c>
       <c r="B100" t="str">
         <v>608/23/T1-1664</v>
       </c>
-      <c r="C100" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C100" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D100" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E100" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
       <c r="A101" t="str">
         <v>PATNI BROTHERS[MP0169]</v>
       </c>
       <c r="B101" t="str">
         <v>608/23/T1-1665</v>
       </c>
-      <c r="C101" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C101" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D101" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E101" t="str">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
       <c r="A102" t="str">
         <v>GOYAL MEDICOSE[MP0174]</v>
       </c>
       <c r="B102" t="str">
         <v>608/23/T1-1666</v>
       </c>
-      <c r="C102" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C102" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D102" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E102" t="str">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
       <c r="A103" t="str">
         <v>GOYAL MEDICOSE[MP0174]</v>
       </c>
       <c r="B103" t="str">
         <v>608/23/T1-1667</v>
       </c>
-      <c r="C103" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C103" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D103" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E103" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
       <c r="A104" t="str">
         <v>GOYAL MEDICOSE[MP0174]</v>
       </c>
       <c r="B104" t="str">
         <v>608/23/T1-1668</v>
       </c>
-      <c r="C104" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C104" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D104" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E104" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
       <c r="A105" t="str">
         <v>HARIOM AGENCIES[MP0177]</v>
       </c>
       <c r="B105" t="str">
         <v>608/23/T1-1669</v>
       </c>
-      <c r="C105" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C105" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D105" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E105" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
       <c r="A106" t="str">
         <v>KHANDELWAL MEDICAL SOTRES[MP0180]</v>
       </c>
       <c r="B106" t="str">
         <v>608/23/T1-1670</v>
       </c>
-      <c r="C106" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C106" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D106" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E106" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
       <c r="A107" t="str">
         <v>AGRAWAL MEDICAL STORES[MP0182]</v>
       </c>
       <c r="B107" t="str">
         <v>608/23/T1-1671</v>
       </c>
-      <c r="C107" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C107" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D107" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E107" t="str">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
       <c r="A108" t="str">
         <v>AGRAWAL MEDICAL STORES[MP0182]</v>
       </c>
       <c r="B108" t="str">
         <v>608/23/T1-1672</v>
       </c>
-      <c r="C108" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C108" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D108" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E108" t="str">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
       <c r="A109" t="str">
         <v>AGRAWAL MEDICAL STORES[MP0182]</v>
       </c>
       <c r="B109" t="str">
         <v>608/23/T1-1673</v>
       </c>
-      <c r="C109" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C109" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D109" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E109" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
       <c r="A110" t="str">
         <v>AGRAWAL MEDICAL STORES[MP0182]</v>
       </c>
       <c r="B110" t="str">
         <v>608/23/T1-1674</v>
       </c>
-      <c r="C110" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C110" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D110" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E110" t="str">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
       <c r="A111" t="str">
         <v>AGRAWAL MEDICAL STORES[MP0182]</v>
       </c>
       <c r="B111" t="str">
         <v>608/23/T1-1675</v>
       </c>
-      <c r="C111" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C111" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D111" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E111" t="str">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
       <c r="A112" t="str">
         <v>AGRAWAL AGENCIES[MP0185]</v>
       </c>
       <c r="B112" t="str">
         <v>608/23/T1-1676</v>
       </c>
-      <c r="C112" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C112" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D112" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E112" t="str">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
       <c r="A113" t="str">
         <v>AGRAWAL AGENCIES[MP0185]</v>
       </c>
       <c r="B113" t="str">
         <v>608/23/T1-1677</v>
       </c>
-      <c r="C113" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C113" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D113" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E113" t="str">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
       <c r="A114" t="str">
         <v>SANGEETA MEDICOSE[MP0198]</v>
       </c>
       <c r="B114" t="str">
         <v>608/23/T1-1678</v>
       </c>
-      <c r="C114" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C114" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D114" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E114" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
       <c r="A115" t="str">
         <v>RAJESH MEDICAL AGENCIE[MP0201]</v>
       </c>
       <c r="B115" t="str">
         <v>608/23/T1-1679</v>
       </c>
-      <c r="C115" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C115" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D115" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E115" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
       <c r="A116" t="str">
         <v>RAJESH MEDICAL AGENCIE[MP0201]</v>
       </c>
       <c r="B116" t="str">
         <v>608/23/T1-1680</v>
       </c>
-      <c r="C116" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C116" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D116" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E116" t="str">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
       <c r="A117" t="str">
         <v>RAJESH MEDICAL AGENCIE[MP0201]</v>
       </c>
       <c r="B117" t="str">
         <v>608/23/T1-1681</v>
       </c>
-      <c r="C117" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C117" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D117" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E117" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="118" xml:space="preserve">
       <c r="A118" t="str">
         <v>NEW HIRA MEDICALS[MP0204]</v>
       </c>
       <c r="B118" t="str">
         <v>608/23/T1-1682</v>
       </c>
-      <c r="C118" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C118" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D118" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E118" t="str">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>22900</v>
+      </c>
+    </row>
+    <row r="119" xml:space="preserve">
       <c r="A119" t="str">
         <v>NEW HIRA MEDICALS[MP0204]</v>
       </c>
       <c r="B119" t="str">
         <v>608/23/T1-1683</v>
       </c>
-      <c r="C119" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C119" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D119" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E119" t="str">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="120" xml:space="preserve">
       <c r="A120" t="str">
         <v>NEW HIRA MEDICALS[MP0204]</v>
       </c>
       <c r="B120" t="str">
         <v>608/23/T1-1684</v>
       </c>
-      <c r="C120" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C120" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D120" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E120" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
       <c r="A121" t="str">
         <v>NEW HIRA MEDICALS[MP0204]</v>
       </c>
       <c r="B121" t="str">
         <v>608/23/T1-1685</v>
       </c>
-      <c r="C121" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C121" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D121" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E121" t="str">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
       <c r="A122" t="str">
         <v>SHREE PORWAL MED AGENCY[MP0206]</v>
       </c>
       <c r="B122" t="str">
         <v>608/23/T1-1686</v>
       </c>
-      <c r="C122" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C122" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D122" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E122" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="123" xml:space="preserve">
       <c r="A123" t="str">
         <v>ANIL MEDICO AGENCIES[MP0207]</v>
       </c>
       <c r="B123" t="str">
         <v>608/23/T1-1687</v>
       </c>
-      <c r="C123" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C123" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D123" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E123" t="str">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="124" xml:space="preserve">
       <c r="A124" t="str">
         <v>ANIL MEDICO AGENCIES[MP0207]</v>
       </c>
       <c r="B124" t="str">
         <v>608/23/T1-1688</v>
       </c>
-      <c r="C124" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C124" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D124" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E124" t="str">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="125" xml:space="preserve">
       <c r="A125" t="str">
         <v>ANIL MEDICO AGENCIES[MP0207]</v>
       </c>
       <c r="B125" t="str">
         <v>608/23/T1-1689</v>
       </c>
-      <c r="C125" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C125" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D125" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E125" t="str">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="126" xml:space="preserve">
       <c r="A126" t="str">
         <v>CHOUDHARY MEDI SALES[MP0283]</v>
       </c>
       <c r="B126" t="str">
         <v>608/23/T1-1690</v>
       </c>
-      <c r="C126" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C126" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D126" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E126" t="str">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="127" xml:space="preserve">
       <c r="A127" t="str">
         <v>CHOUDHARY MEDI SALES[MP0283]</v>
       </c>
       <c r="B127" t="str">
         <v>608/23/T1-1691</v>
       </c>
-      <c r="C127" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C127" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D127" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E127" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="128" xml:space="preserve">
       <c r="A128" t="str">
         <v>RAJ MEDICAL AGENCIES[MP0217]</v>
       </c>
       <c r="B128" t="str">
         <v>608/23/T1-1692</v>
       </c>
-      <c r="C128" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C128" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D128" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E128" t="str">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="129" xml:space="preserve">
       <c r="A129" t="str">
         <v>RAJ MEDICAL AGENCIES[MP0217]</v>
       </c>
       <c r="B129" t="str">
         <v>608/23/T1-1693</v>
       </c>
-      <c r="C129" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C129" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D129" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E129" t="str">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="130" xml:space="preserve">
       <c r="A130" t="str">
         <v>RAJ MEDICAL AGENCIES[MP0217]</v>
       </c>
       <c r="B130" t="str">
         <v>608/23/T1-1694</v>
       </c>
-      <c r="C130" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C130" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D130" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E130" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="131" xml:space="preserve">
       <c r="A131" t="str">
         <v>RAJESH PHARMA[MP0222]</v>
       </c>
       <c r="B131" t="str">
         <v>608/23/T1-1695</v>
       </c>
-      <c r="C131" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C131" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D131" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E131" t="str">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="132" xml:space="preserve">
       <c r="A132" t="str">
         <v>RAJESH PHARMA[MP0222]</v>
       </c>
       <c r="B132" t="str">
         <v>608/23/T1-1696</v>
       </c>
-      <c r="C132" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C132" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D132" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E132" t="str">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>31300</v>
+      </c>
+    </row>
+    <row r="133" xml:space="preserve">
       <c r="A133" t="str">
         <v>MAHAKAL PHARMA[MP0226]</v>
       </c>
       <c r="B133" t="str">
         <v>608/23/T1-1697</v>
       </c>
-      <c r="C133" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C133" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D133" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E133" t="str">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="134" xml:space="preserve">
       <c r="A134" t="str">
         <v>BANSAL MEDICAL STORES[MP0227]</v>
       </c>
       <c r="B134" t="str">
         <v>608/23/T1-1698</v>
       </c>
-      <c r="C134" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C134" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D134" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E134" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="135" xml:space="preserve">
       <c r="A135" t="str">
         <v>GEE VEE MEDICO[MP0234]</v>
       </c>
       <c r="B135" t="str">
         <v>608/23/T1-1699</v>
       </c>
-      <c r="C135" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C135" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D135" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E135" t="str">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="136" xml:space="preserve">
       <c r="A136" t="str">
         <v>KOTHARI MEDICAL AGENCIES[MP0241]</v>
       </c>
       <c r="B136" t="str">
         <v>608/23/T1-1700</v>
       </c>
-      <c r="C136" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C136" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D136" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E136" t="str">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="137" xml:space="preserve">
       <c r="A137" t="str">
         <v>KOTHARI MEDICAL AGENCIES[MP0241]</v>
       </c>
       <c r="B137" t="str">
         <v>608/23/T1-1701</v>
       </c>
-      <c r="C137" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C137" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D137" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E137" t="str">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="138" xml:space="preserve">
       <c r="A138" t="str">
         <v>KOTHARI MEDICAL AGENCIES[MP0241]</v>
       </c>
       <c r="B138" t="str">
         <v>608/23/T1-1702</v>
       </c>
-      <c r="C138" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C138" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D138" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E138" t="str">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="139" xml:space="preserve">
       <c r="A139" t="str">
         <v>KOTHARI MEDICAL AGENCIES[MP0241]</v>
       </c>
       <c r="B139" t="str">
         <v>608/23/T1-1703</v>
       </c>
-      <c r="C139" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C139" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D139" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E139" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="140" xml:space="preserve">
       <c r="A140" t="str">
         <v>SHREE MEDICAL STORES[MP0252]</v>
       </c>
       <c r="B140" t="str">
         <v>608/23/T1-1704</v>
       </c>
-      <c r="C140" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C140" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D140" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E140" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="141" xml:space="preserve">
       <c r="A141" t="str">
         <v>SHREE MEDICAL STORES[MP0252]</v>
       </c>
       <c r="B141" t="str">
         <v>608/23/T1-1705</v>
       </c>
-      <c r="C141" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C141" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D141" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E141" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="142" xml:space="preserve">
       <c r="A142" t="str">
         <v>SHREE MEDICAL STORES[MP0252]</v>
       </c>
       <c r="B142" t="str">
         <v>608/23/T1-1706</v>
       </c>
-      <c r="C142" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C142" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D142" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E142" t="str">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="143" xml:space="preserve">
       <c r="A143" t="str">
         <v>SATYA MEDICAL HALL[MP0260]</v>
       </c>
       <c r="B143" t="str">
         <v>608/23/T1-1707</v>
       </c>
-      <c r="C143" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C143" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D143" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E143" t="str">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="144" xml:space="preserve">
       <c r="A144" t="str">
         <v>SATYA MEDICAL HALL[MP0260]</v>
       </c>
       <c r="B144" t="str">
         <v>608/23/T1-1708</v>
       </c>
-      <c r="C144" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C144" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D144" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E144" t="str">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="145" xml:space="preserve">
       <c r="A145" t="str">
         <v>SATYA MEDICAL HALL[MP0260]</v>
       </c>
       <c r="B145" t="str">
         <v>608/23/T1-1709</v>
       </c>
-      <c r="C145" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C145" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D145" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E145" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" xml:space="preserve">
       <c r="A146" t="str">
         <v>SATYA MEDICAL HALL[MP0260]</v>
       </c>
       <c r="B146" t="str">
         <v>608/23/T1-1710</v>
       </c>
-      <c r="C146" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C146" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D146" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E146" t="str">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="147" xml:space="preserve">
       <c r="A147" t="str">
         <v>JATASHANKAR PHARMA[MP0261]</v>
       </c>
       <c r="B147" t="str">
         <v>608/23/T1-1711</v>
       </c>
-      <c r="C147" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C147" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D147" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E147" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="148" xml:space="preserve">
       <c r="A148" t="str">
         <v>OSHO AGENCIES[MP0262]</v>
       </c>
       <c r="B148" t="str">
         <v>608/23/T1-1712</v>
       </c>
-      <c r="C148" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C148" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D148" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E148" t="str">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>69800</v>
+      </c>
+    </row>
+    <row r="149" xml:space="preserve">
       <c r="A149" t="str">
         <v>OSHO AGENCIES[MP0262]</v>
       </c>
       <c r="B149" t="str">
         <v>608/23/T1-1713</v>
       </c>
-      <c r="C149" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C149" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D149" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E149" t="str">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>69200</v>
+      </c>
+    </row>
+    <row r="150" xml:space="preserve">
       <c r="A150" t="str">
         <v>OSHO AGENCIES[MP0262]</v>
       </c>
       <c r="B150" t="str">
         <v>608/23/T1-1714</v>
       </c>
-      <c r="C150" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C150" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D150" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E150" t="str">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>68900</v>
+      </c>
+    </row>
+    <row r="151" xml:space="preserve">
       <c r="A151" t="str">
         <v>USHA MEDICAL STORES[MP0264]</v>
       </c>
       <c r="B151" t="str">
         <v>608/23/T1-1715</v>
       </c>
-      <c r="C151" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C151" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D151" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E151" t="str">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="152" xml:space="preserve">
       <c r="A152" t="str">
         <v>USHA MEDICAL STORES[MP0264]</v>
       </c>
       <c r="B152" t="str">
         <v>608/23/T1-1716</v>
       </c>
-      <c r="C152" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C152" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D152" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E152" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="153" xml:space="preserve">
       <c r="A153" t="str">
         <v>USHA MEDICAL STORES[MP0264]</v>
       </c>
       <c r="B153" t="str">
         <v>608/23/T1-1717</v>
       </c>
-      <c r="C153" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C153" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D153" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E153" t="str">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="154" xml:space="preserve">
       <c r="A154" t="str">
         <v>USHA MEDICAL STORES[MP0264]</v>
       </c>
       <c r="B154" t="str">
         <v>608/23/T1-1718</v>
       </c>
-      <c r="C154" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C154" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D154" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E154" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="155" xml:space="preserve">
       <c r="A155" t="str">
         <v>RAJESH MEDICOSE[MP0265]</v>
       </c>
       <c r="B155" t="str">
         <v>608/23/T1-1719</v>
       </c>
-      <c r="C155" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C155" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D155" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E155" t="str">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="156" xml:space="preserve">
       <c r="A156" t="str">
         <v>RAJESH MEDICOSE[MP0265]</v>
       </c>
       <c r="B156" t="str">
         <v>608/23/T1-1720</v>
       </c>
-      <c r="C156" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C156" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D156" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E156" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="157" xml:space="preserve">
       <c r="A157" t="str">
         <v>RAJESH MEDICOSE[MP0265]</v>
       </c>
       <c r="B157" t="str">
         <v>608/23/T1-1721</v>
       </c>
-      <c r="C157" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C157" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D157" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E157" t="str">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="158" xml:space="preserve">
       <c r="A158" t="str">
         <v>CHANDRA AGENCEIS[MP0272]</v>
       </c>
       <c r="B158" t="str">
         <v>608/23/T1-1722</v>
       </c>
-      <c r="C158" t="str">
-        <v>Dated  :20-10-2023</v>
+      <c r="C158" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
       </c>
       <c r="D158" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E158" t="str">
-        <v>43</v>
+        <v>4300</v>
       </c>
     </row>
   </sheetData>
